--- a/tables/cifar10_resnet_5.xlsx
+++ b/tables/cifar10_resnet_5.xlsx
@@ -645,7 +645,7 @@
         <v>2.3</v>
       </c>
       <c r="F5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>0.1</v>
@@ -687,7 +687,7 @@
         <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>23.7</v>
+        <v>19.4</v>
       </c>
       <c r="G6" t="n">
         <v>99.3</v>
@@ -705,7 +705,7 @@
         <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
         <v>0.1</v>
@@ -729,7 +729,7 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -747,7 +747,7 @@
         <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>0.1</v>
@@ -771,7 +771,7 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -789,7 +789,7 @@
         <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="n">
         <v>0.1</v>
@@ -817,7 +817,7 @@
         <v>60.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9" t="n">
         <v>23.5</v>
@@ -835,7 +835,7 @@
         <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="M9" t="n">
         <v>0.1</v>
@@ -989,7 +989,7 @@
         <v>1.8</v>
       </c>
       <c r="F13" t="n">
-        <v>71.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G13" t="n">
         <v>82.09999999999999</v>
@@ -1007,7 +1007,7 @@
         <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>0.1</v>
@@ -1031,7 +1031,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>20.7</v>
+        <v>19.2</v>
       </c>
       <c r="G14" t="n">
         <v>72.3</v>
@@ -1049,7 +1049,7 @@
         <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>0.1</v>
@@ -1119,7 +1119,7 @@
         <v>10.2</v>
       </c>
       <c r="F16" t="n">
-        <v>64.7</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>88</v>
@@ -1137,7 +1137,7 @@
         <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>0.1</v>
@@ -1207,7 +1207,7 @@
         <v>20.4</v>
       </c>
       <c r="F18" t="n">
-        <v>35.09999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="G18" t="n">
         <v>96.2</v>
@@ -1225,7 +1225,7 @@
         <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="n">
         <v>0.1</v>
@@ -1249,7 +1249,7 @@
         <v>11.2</v>
       </c>
       <c r="F19" t="n">
-        <v>63.9</v>
+        <v>57.9</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
@@ -1291,7 +1291,7 @@
         <v>12.4</v>
       </c>
       <c r="F20" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -1309,7 +1309,7 @@
         <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M20" t="n">
         <v>0.1</v>
@@ -1333,7 +1333,7 @@
         <v>12.4</v>
       </c>
       <c r="F21" t="n">
-        <v>63.8</v>
+        <v>71.8</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -1351,7 +1351,7 @@
         <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>0.1</v>
@@ -1379,7 +1379,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>78.10000000000002</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G22" t="n">
         <v>79.7</v>
@@ -1421,7 +1421,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>88.5</v>
@@ -1463,7 +1463,7 @@
         <v>80.60000000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>75.3</v>
+        <v>76</v>
       </c>
       <c r="G24" t="n">
         <v>74.5</v>
@@ -1509,7 +1509,7 @@
         <v>95.5</v>
       </c>
       <c r="F25" t="n">
-        <v>93.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G25" t="n">
         <v>88.8</v>
@@ -1551,7 +1551,7 @@
         <v>84.8</v>
       </c>
       <c r="F26" t="n">
-        <v>79.90000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="G26" t="n">
         <v>68.7</v>
@@ -1593,7 +1593,7 @@
         <v>63.9</v>
       </c>
       <c r="F27" t="n">
-        <v>51.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>37.1</v>
@@ -1611,7 +1611,7 @@
         <v>4.9</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0.1</v>

--- a/tables/cifar10_resnet_5.xlsx
+++ b/tables/cifar10_resnet_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>0.031</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="D4" t="n">
         <v>28.7</v>
@@ -612,7 +612,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>7.8</v>
@@ -1575,48 +1575,6 @@
         <v>0.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="E27" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N27" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1629,7 +1587,7 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/cifar10_resnet_5.xlsx
+++ b/tables/cifar10_resnet_5.xlsx
@@ -597,7 +597,7 @@
         <v>13.3</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
         <v>69.69999999999999</v>
@@ -615,7 +615,7 @@
         <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="K4" t="n">
         <v>4.9</v>
@@ -636,10 +636,10 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>62.1</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>66.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>2.3</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>7.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K6" t="n">
         <v>4.9</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K7" t="n">
         <v>4.9</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="K8" t="n">
         <v>4.9</v>
@@ -808,10 +808,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="D9" t="n">
-        <v>26.20000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="E9" t="n">
         <v>60.9</v>
@@ -826,10 +826,10 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
@@ -850,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7</v>
+        <v>13.6</v>
       </c>
       <c r="D10" t="n">
-        <v>26.6</v>
+        <v>26.20000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>44.9</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="K10" t="n">
         <v>4.9</v>
@@ -892,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E11" t="n">
         <v>27.8</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
@@ -934,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6</v>
+        <v>20.9</v>
       </c>
       <c r="D12" t="n">
-        <v>28.8</v>
+        <v>30.3</v>
       </c>
       <c r="E12" t="n">
         <v>9.199999999999999</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>7.9</v>
@@ -983,7 +983,7 @@
         <v>9.4</v>
       </c>
       <c r="D13" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E13" t="n">
         <v>1.8</v>
@@ -998,10 +998,10 @@
         <v>94.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K13" t="n">
         <v>4.9</v>
@@ -1022,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="E14" t="n">
         <v>92.09999999999999</v>
@@ -1040,10 +1040,10 @@
         <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.9</v>
@@ -1064,10 +1064,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>83.09999999999999</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="K15" t="n">
         <v>4.9</v>
@@ -1110,10 +1110,10 @@
         <v>1e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="E16" t="n">
         <v>10.2</v>
@@ -1128,10 +1128,10 @@
         <v>10.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>7.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.9</v>
@@ -1156,10 +1156,10 @@
         <v>0.031</v>
       </c>
       <c r="C17" t="n">
-        <v>65.2</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>69.89999999999999</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="E17" t="n">
         <v>70</v>
@@ -1174,10 +1174,10 @@
         <v>60.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.9</v>
@@ -1198,10 +1198,10 @@
         <v>0.3</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>20.4</v>
@@ -1216,10 +1216,10 @@
         <v>11.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K18" t="n">
         <v>4.9</v>
@@ -1258,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J19" t="n">
-        <v>7.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="K19" t="n">
         <v>4.9</v>
@@ -1303,7 +1303,7 @@
         <v>4.8</v>
       </c>
       <c r="J20" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="K20" t="n">
         <v>4.9</v>
@@ -1342,10 +1342,10 @@
         <v>12.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.100000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="E22" t="n">
         <v>93.09999999999999</v>
@@ -1388,10 +1388,10 @@
         <v>78.40000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="K22" t="n">
         <v>4.9</v>
@@ -1412,10 +1412,10 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="E23" t="n">
         <v>95.09999999999999</v>
@@ -1430,10 +1430,10 @@
         <v>93</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.9</v>
@@ -1454,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="D24" t="n">
-        <v>84.39999999999998</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>80.60000000000002</v>
@@ -1472,10 +1472,10 @@
         <v>75.90000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J24" t="n">
-        <v>8.200000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="K24" t="n">
         <v>4.9</v>
@@ -1500,10 +1500,10 @@
         <v>0.3</v>
       </c>
       <c r="C25" t="n">
-        <v>95.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>95.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>95.5</v>
@@ -1518,10 +1518,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>7.199999999999998</v>
+        <v>7.9</v>
       </c>
       <c r="K25" t="n">
         <v>4.9</v>
@@ -1542,10 +1542,10 @@
         <v>0.6</v>
       </c>
       <c r="C26" t="n">
-        <v>84.7</v>
+        <v>38.5</v>
       </c>
       <c r="D26" t="n">
-        <v>85.7</v>
+        <v>40.5</v>
       </c>
       <c r="E26" t="n">
         <v>84.8</v>
@@ -1560,7 +1560,7 @@
         <v>79.60000000000002</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
         <v>7.9</v>
